--- a/data/income_statement/2digits/total/12_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/12_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>12-Manufacture of tobacco products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>12-Manufacture of tobacco products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11457947.44251</v>
@@ -965,10 +871,10 @@
         <v>20808708.23633</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>22864390.77852999</v>
+        <v>22864390.77853</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10046145.87108</v>
+        <v>27132832.19044</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>32003298.24942</v>
@@ -980,13 +886,18 @@
         <v>40964162.19463</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>48038389.93791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>48040178.01292</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>54715466.102</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>10950883.18379</v>
@@ -1007,7 +918,7 @@
         <v>21404635.98438</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8880597.348469999</v>
+        <v>25399511.24793</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>29788271.25571</v>
@@ -1019,13 +930,18 @@
         <v>37706904.08481</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44448373.51659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44448373.51659001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>48363462.85</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>504749.93919</v>
@@ -1037,7 +953,7 @@
         <v>659342.5200199999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>874098.0508099999</v>
+        <v>874098.05081</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>1107808.29803</v>
@@ -1046,7 +962,7 @@
         <v>1458061.06356</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1163959.36371</v>
+        <v>1731731.78361</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>2213626.38155</v>
@@ -1058,22 +974,27 @@
         <v>3232377.63716</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3575664.75393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3577450.51614</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6312031.912</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2314.31953</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>679.50551</v>
+        <v>679.5055099999998</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>953.36572</v>
+        <v>953.3657200000001</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>688.5649000000001</v>
@@ -1097,13 +1018,18 @@
         <v>24880.47266</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>14351.66739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14353.98019</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>39971.34</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>7989671.4093</v>
@@ -1124,7 +1050,7 @@
         <v>18377228.45081</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7321364.70565</v>
+        <v>21986267.58963</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>25709389.47635</v>
@@ -1138,17 +1064,22 @@
       <c r="M9" s="47" t="n">
         <v>38225929.01003</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>42252607.272</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>14347.3541</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>40259.86138</v>
+        <v>40259.86137999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>19608.70789</v>
@@ -1163,7 +1094,7 @@
         <v>43327.85816</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>27763.50534</v>
+        <v>38107.63531000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>38241.7914</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>296614.67979</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>125370.52</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>10.07258</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>18136.12074</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>18067.834</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>7975313.98262</v>
@@ -1241,7 +1182,7 @@
         <v>18333900.59265</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7287752.998439999</v>
+        <v>21942311.75245</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>25671147.68495</v>
@@ -1255,17 +1196,22 @@
       <c r="M12" s="48" t="n">
         <v>37911178.2095</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>42109168.918</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3468276.03321</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3086272.149309999</v>
+        <v>3086272.14931</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>3152987.97146</v>
@@ -1277,28 +1223,33 @@
         <v>3815883.75811</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4487162.327719999</v>
+        <v>4487162.32772</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2724781.16543</v>
+        <v>5146564.60081</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6293908.77307</v>
+        <v>6293908.773070001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6505995.133049999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8806093.0107</v>
+        <v>8806093.010699999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9812460.927879998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9814249.00289</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12462858.83</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2530611.73466</v>
@@ -1316,28 +1267,33 @@
         <v>2781883.52167</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3374700.33292</v>
+        <v>3374700.332919999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2371034.3938</v>
+        <v>4076214.083910001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4747738.45156</v>
+        <v>4747738.451559999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>5058958.30499</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7180540.949669999</v>
+        <v>7180540.94967</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8237006.692160001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8238306.60343</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10886914.364</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2326333.4613</v>
@@ -1358,25 +1314,30 @@
         <v>3209918.43793</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2350463.68326</v>
+        <v>3878203.9003</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>4585399.886899999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>4820579.061089999</v>
+        <v>4820579.06109</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6950349.718250001</v>
+        <v>6950349.71825</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8131713.419680001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8132970.00989</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>9165038.113</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>169392.95631</v>
@@ -1385,7 +1346,7 @@
         <v>1660.68167</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4270.700930000001</v>
+        <v>4270.70093</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>153370.55001</v>
@@ -1409,13 +1370,18 @@
         <v>13390.48206</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>48615.49133999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>48615.49134000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>94829.966</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>919.7924300000001</v>
@@ -1448,13 +1414,18 @@
         <v>667.9282099999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1645.07093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1688.39199</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1575801.643</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>33965.52462</v>
@@ -1475,7 +1446,7 @@
         <v>158013.8732</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>8126.65551</v>
+        <v>185566.12858</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>158934.18376</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>55032.71021</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>51244.642</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>937664.2985499999</v>
@@ -1502,7 +1478,7 @@
         <v>842837.18108</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>784759.3279499999</v>
+        <v>784759.3279500001</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>1138168.19212</v>
@@ -1514,7 +1490,7 @@
         <v>1112461.9948</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>353746.77163</v>
+        <v>1070350.5169</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>1546170.32151</v>
@@ -1526,52 +1502,62 @@
         <v>1625552.06103</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1575454.23572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1575942.39946</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1575944.466</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>900897.59259</v>
+        <v>900897.5925899999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>806188.06009</v>
+        <v>806188.0600899999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>813052.9118100001</v>
+        <v>813052.91181</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>719142.71931</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>355597.7741400001</v>
+        <v>355597.77414</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>370741.9538300001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>263746.60794</v>
+        <v>422950.39095</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>489991.0099600001</v>
+        <v>489997.93152</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>515627.95142</v>
+        <v>515627.9514199999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>720294.4405199999</v>
+        <v>720295.6578200001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>845309.5089599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>846295.0062000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1039884.568</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>270.27041</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>210.53</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>149767.24429</v>
@@ -1631,25 +1622,30 @@
         <v>202682.43578</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>106895.2973</v>
+        <v>229123.97886</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>302842.95647</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>304905.73332</v>
+        <v>304905.7333200001</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>454047.5878400001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>513285.49121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>513498.72406</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>608009.809</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>750860.07789</v>
@@ -1658,10 +1654,10 @@
         <v>649227.44427</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>638734.64032</v>
+        <v>638734.6403199999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>530181.0642700001</v>
+        <v>530181.06427</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>164642.14295</v>
@@ -1670,25 +1666,30 @@
         <v>168050.72321</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>156467.69979</v>
+        <v>193442.80124</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>187148.05349</v>
+        <v>187154.97505</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>210722.2181</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>266009.83752</v>
+        <v>266011.05482</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>332024.01775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>332796.28214</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>431664.229</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>36766.70596</v>
@@ -1700,7 +1701,7 @@
         <v>-28293.58386</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>419025.4728099999</v>
+        <v>419025.47281</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>678402.4622999999</v>
@@ -1709,25 +1710,30 @@
         <v>741720.04097</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>90000.16369</v>
+        <v>647400.12595</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1056179.31155</v>
+        <v>1056172.38999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>931408.87664</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>905257.62051</v>
+        <v>905256.40321</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>730144.7267599999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>729647.39326</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>536059.898</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>489494.3713</v>
@@ -1748,7 +1754,7 @@
         <v>301971.81448</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>190350.17499</v>
+        <v>403862.7175200001</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>488934.06249</v>
@@ -1760,13 +1766,18 @@
         <v>1297983.82911</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>903040.2637599999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>903052.2873099999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1264461.26</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1280.01185</v>
@@ -1787,7 +1798,7 @@
         <v>1837.97454</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>1948.00231</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>1807.45718</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1970.00661</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1500</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>111844.93439</v>
@@ -1865,7 +1886,7 @@
         <v>161720.71394</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>37248.37638</v>
+        <v>154185.92729</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>186581.72696</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>190389.85635</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>152252.7</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3946.88128</v>
@@ -1943,7 +1974,7 @@
         <v>12667.36131</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7013.76642</v>
+        <v>8685.565199999999</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>41565.50497</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>13240.07727</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>12932.782</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>156.97464</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>352713.98386</v>
@@ -2009,19 +2050,19 @@
         <v>254078.84278</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>330438.30531</v>
+        <v>330438.3053100001</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>63077.74378</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>69564.15984000001</v>
+        <v>69564.15983999999</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>84063.47778</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>139973.81097</v>
+        <v>190096.17964</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>207667.12996</v>
@@ -2030,16 +2071,21 @@
         <v>422250.25099</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>945886.1348699998</v>
+        <v>945886.13487</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>629569.2134599999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>629579.42911</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>892031.998</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>18051.58528</v>
@@ -2132,13 +2188,13 @@
         <v>33090.08084</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>36218.63394</v>
+        <v>36218.63394000001</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>41568.3099</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5295.05266</v>
+        <v>48127.87452</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>51312.24342</v>
@@ -2150,19 +2206,24 @@
         <v>74903.74200999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>67871.11007000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>67872.91796999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>207243.78</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>235345.48215</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>631985.6426099999</v>
+        <v>631985.64261</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>392458.81807</v>
@@ -2177,7 +2238,7 @@
         <v>130840.60211</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>120873.77356</v>
+        <v>211057.72393</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>250054.87385</v>
@@ -2186,16 +2247,21 @@
         <v>421374.86692</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>937746.16061</v>
+        <v>937746.1606099999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>680828.52462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>680844.76037</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>955168.1899999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>107.71621</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>371899.22633</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3.698</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>10109.06571</v>
@@ -2255,7 +2326,7 @@
         <v>4606.29177</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1124.26201</v>
+        <v>6280.41508</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>8033.4552</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>15453.11603</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>66125.87</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>179259.87802</v>
@@ -2321,10 +2402,10 @@
         <v>261442.50184</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>310299.2100200001</v>
+        <v>310299.21002</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>82058.49854</v>
+        <v>82058.49853999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>59322.24173</v>
@@ -2333,7 +2414,7 @@
         <v>86027.20540000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>114832.3911</v>
+        <v>154770.7913</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>193335.06126</v>
@@ -2345,13 +2426,18 @@
         <v>850850.6779700001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>224867.85245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>224884.0882</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>810073.799</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>45868.82221</v>
@@ -2450,10 +2546,10 @@
         <v>39918.22913</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4670.00801</v>
+        <v>49759.40511</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>48686.35739</v>
+        <v>48686.35738999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>82678.76268000001</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>68608.32981</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>78964.823</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>39923.13854</v>
@@ -2489,7 +2590,7 @@
         <v>25876.70226</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>33118.96098</v>
+        <v>42610.83065</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>66393.53857999999</v>
@@ -2501,16 +2602,21 @@
         <v>115040.99644</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>288906.7214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>288907.3664000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>111985.43</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>39923.13854</v>
+        <v>39923.13853999999</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>20023.43378</v>
@@ -2528,7 +2634,7 @@
         <v>25876.70226</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>33118.96098</v>
+        <v>42610.83065</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>66393.53857999999</v>
@@ -2540,13 +2646,18 @@
         <v>115039.80615</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>288906.7214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>288907.3664000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>111985.43</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>250992.45657</v>
@@ -2600,31 +2716,36 @@
         <v>515956.69265</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>794148.79932</v>
+        <v>794148.7993200001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>886974.5510799999</v>
+        <v>886974.55108</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>126357.60414</v>
+        <v>797594.28889</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1228664.96161</v>
+        <v>1228658.04005</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1138287.92256</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1150454.29257</v>
+        <v>1150453.07527</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>663449.7445</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>662947.5537999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>733367.5379999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>25020.38074</v>
@@ -2645,25 +2766,30 @@
         <v>67487.48295000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>39304.78494</v>
+        <v>48640.82948000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>40767.53017</v>
+        <v>40767.53026000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>35281.81404999999</v>
+        <v>35281.81405</v>
       </c>
       <c r="L48" s="47" t="n">
         <v>32261.18415</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>67545.41806</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>67545.41859</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>114975.3</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4871.76914</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>162.39065</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>697.936</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>20148.6116</v>
@@ -2723,10 +2854,10 @@
         <v>63939.94869</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>36474.86419</v>
+        <v>45810.90873</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>40228.13086</v>
+        <v>40228.13095000001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>34921.74556</v>
@@ -2735,25 +2866,30 @@
         <v>31821.71153</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>67383.02741</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>67383.02794000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>114277.364</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>205554.35279</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>96518.58603999999</v>
+        <v>96518.58604000001</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>112799.30572</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>98578.76504</v>
+        <v>98578.76504000001</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>176996.85509</v>
@@ -2762,7 +2898,7 @@
         <v>132980.19536</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>202799.56605</v>
+        <v>215480.42046</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>135853.6172</v>
@@ -2774,13 +2910,18 @@
         <v>90373.80951000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>220826.98072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>221063.84279</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>194125.278</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>136560.60054</v>
@@ -2813,13 +2954,18 @@
         <v>625.2225999999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>625.2225699999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>803.0807600000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2866.679</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3992.64231</v>
@@ -2834,7 +2980,7 @@
         <v>2143.58833</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4276.017809999999</v>
+        <v>4276.01781</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>3804.78901</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>1269.34145</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>239.607</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>65001.10993999999</v>
@@ -2867,7 +3018,7 @@
         <v>57582.83927</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>82413.18139000001</v>
+        <v>82413.18139</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>93899.03595</v>
@@ -2879,7 +3030,7 @@
         <v>126022.54623</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>181606.91917</v>
+        <v>194287.77358</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>134094.77405</v>
@@ -2891,16 +3042,21 @@
         <v>89536.76023999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>218932.4167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>218991.42058</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>191018.992</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>70458.48452000001</v>
+        <v>70458.48452</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-312295.2040499999</v>
@@ -2909,34 +3065,39 @@
         <v>-60295.38171</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>473402.84576</v>
+        <v>473402.8457600001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>720768.5743799999</v>
+        <v>720768.5743800001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>821481.83867</v>
+        <v>821481.8386700001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-37137.17697</v>
+        <v>630754.69791</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1133578.87458</v>
+        <v>1133571.95311</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1117142.21694</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1092341.66721</v>
+        <v>1092340.44991</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>510168.18184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>509429.1296</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>654217.5600000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>147181.20341</v>
@@ -2957,7 +3118,7 @@
         <v>169980.11398</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>28809.42548</v>
+        <v>162874.23214</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>197588.03113</v>
@@ -2971,14 +3132,19 @@
       <c r="M56" s="47" t="n">
         <v>154225.06263</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>181719.301</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-76722.71888999999</v>
+        <v>-76722.71889000002</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-433341.84873</v>
@@ -2996,22 +3162,25 @@
         <v>651501.7246899999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-65946.60244999999</v>
+        <v>467880.46577</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>935990.8434499999</v>
+        <v>935983.9219799999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>936443.5265300001</v>
+        <v>936443.5265299999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>865312.4674799999</v>
+        <v>865311.2501800001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>355943.11921</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>355204.06697</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>472498.259</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>21</v>
@@ -3050,22 +3222,25 @@
         <v>14</v>
       </c>
       <c r="I59" s="35" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>10</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>9</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>14</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>42</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>